--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Itgb6.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Itgb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H2">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I2">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J2">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.11959609041441</v>
+        <v>0.156219</v>
       </c>
       <c r="N2">
-        <v>4.11959609041441</v>
+        <v>0.468657</v>
       </c>
       <c r="O2">
-        <v>0.8649637054135539</v>
+        <v>0.02370067533399361</v>
       </c>
       <c r="P2">
-        <v>0.8649637054135539</v>
+        <v>0.02639406479478576</v>
       </c>
       <c r="Q2">
-        <v>69.60981554072325</v>
+        <v>3.862012843352999</v>
       </c>
       <c r="R2">
-        <v>69.60981554072325</v>
+        <v>34.75811559017699</v>
       </c>
       <c r="S2">
-        <v>0.00930118215570051</v>
+        <v>0.0003177898890948961</v>
       </c>
       <c r="T2">
-        <v>0.00930118215570051</v>
+        <v>0.0003552188581638231</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H3">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I3">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J3">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.643142582469859</v>
+        <v>4.379107333333333</v>
       </c>
       <c r="N3">
-        <v>0.643142582469859</v>
+        <v>13.137322</v>
       </c>
       <c r="O3">
-        <v>0.135036294586446</v>
+        <v>0.6643737391741329</v>
       </c>
       <c r="P3">
-        <v>0.135036294586446</v>
+        <v>0.7398744243614509</v>
       </c>
       <c r="Q3">
-        <v>10.86733639646885</v>
+        <v>108.2593587448046</v>
       </c>
       <c r="R3">
-        <v>10.86733639646885</v>
+        <v>974.3342287032418</v>
       </c>
       <c r="S3">
-        <v>0.001452080781792868</v>
+        <v>0.008908238010707059</v>
       </c>
       <c r="T3">
-        <v>0.001452080781792868</v>
+        <v>0.009957441199364297</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1339.72205469232</v>
+        <v>24.721787</v>
       </c>
       <c r="H4">
-        <v>1339.72205469232</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I4">
-        <v>0.8525878247733181</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J4">
-        <v>0.8525878247733181</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>4.11959609041441</v>
+        <v>0.015348</v>
       </c>
       <c r="N4">
-        <v>4.11959609041441</v>
+        <v>0.046044</v>
       </c>
       <c r="O4">
-        <v>0.8649637054135539</v>
+        <v>0.00232851295313716</v>
       </c>
       <c r="P4">
-        <v>0.8649637054135539</v>
+        <v>0.00259312955831475</v>
       </c>
       <c r="Q4">
-        <v>5519.113738752441</v>
+        <v>0.3794299868759999</v>
       </c>
       <c r="R4">
-        <v>5519.113738752441</v>
+        <v>3.414869881884</v>
       </c>
       <c r="S4">
-        <v>0.7374575241064111</v>
+        <v>3.12218054002936E-05</v>
       </c>
       <c r="T4">
-        <v>0.7374575241064111</v>
+        <v>3.489907780166534E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1339.72205469232</v>
+        <v>24.721787</v>
       </c>
       <c r="H5">
-        <v>1339.72205469232</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I5">
-        <v>0.8525878247733181</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J5">
-        <v>0.8525878247733181</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.643142582469859</v>
+        <v>0.02281433333333334</v>
       </c>
       <c r="N5">
-        <v>0.643142582469859</v>
+        <v>0.068443</v>
       </c>
       <c r="O5">
-        <v>0.135036294586446</v>
+        <v>0.003461263401345813</v>
       </c>
       <c r="P5">
-        <v>0.135036294586446</v>
+        <v>0.003854607904607254</v>
       </c>
       <c r="Q5">
-        <v>861.6323020466443</v>
+        <v>0.5640110892136666</v>
       </c>
       <c r="R5">
-        <v>861.6323020466443</v>
+        <v>5.076099802922999</v>
       </c>
       <c r="S5">
-        <v>0.115130300666907</v>
+        <v>4.641026033820465E-05</v>
       </c>
       <c r="T5">
-        <v>0.115130300666907</v>
+        <v>5.187641347362046E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>54.8493693618876</v>
+        <v>24.721787</v>
       </c>
       <c r="H6">
-        <v>54.8493693618876</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I6">
-        <v>0.03490567640552861</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J6">
-        <v>0.03490567640552861</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.11959609041441</v>
+        <v>2.0178425</v>
       </c>
       <c r="N6">
-        <v>4.11959609041441</v>
+        <v>4.035685</v>
       </c>
       <c r="O6">
-        <v>0.8649637054135539</v>
+        <v>0.3061358091373905</v>
       </c>
       <c r="P6">
-        <v>0.8649637054135539</v>
+        <v>0.2272837733808414</v>
       </c>
       <c r="Q6">
-        <v>225.957247584928</v>
+        <v>49.88467248454749</v>
       </c>
       <c r="R6">
-        <v>225.957247584928</v>
+        <v>299.3080349072849</v>
       </c>
       <c r="S6">
-        <v>0.03019214320369249</v>
+        <v>0.00410481403853544</v>
       </c>
       <c r="T6">
-        <v>0.03019214320369249</v>
+        <v>0.003058849900052423</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>54.8493693618876</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H7">
-        <v>54.8493693618876</v>
+        <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.03490567640552861</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J7">
-        <v>0.03490567640552861</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.643142582469859</v>
+        <v>0.156219</v>
       </c>
       <c r="N7">
-        <v>0.643142582469859</v>
+        <v>0.468657</v>
       </c>
       <c r="O7">
-        <v>0.135036294586446</v>
+        <v>0.02370067533399361</v>
       </c>
       <c r="P7">
-        <v>0.135036294586446</v>
+        <v>0.02639406479478576</v>
       </c>
       <c r="Q7">
-        <v>35.27596505824755</v>
+        <v>227.811197299861</v>
       </c>
       <c r="R7">
-        <v>35.27596505824755</v>
+        <v>2050.300775698749</v>
       </c>
       <c r="S7">
-        <v>0.004713533201836119</v>
+        <v>0.01874568989305691</v>
       </c>
       <c r="T7">
-        <v>0.004713533201836119</v>
+        <v>0.02095353813260052</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>139.42070551673</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H8">
-        <v>139.42070551673</v>
+        <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.0887261619890026</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J8">
-        <v>0.0887261619890026</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.11959609041441</v>
+        <v>4.379107333333333</v>
       </c>
       <c r="N8">
-        <v>4.11959609041441</v>
+        <v>13.137322</v>
       </c>
       <c r="O8">
-        <v>0.8649637054135539</v>
+        <v>0.6643737391741329</v>
       </c>
       <c r="P8">
-        <v>0.8649637054135539</v>
+        <v>0.7398744243614509</v>
       </c>
       <c r="Q8">
-        <v>574.3569933695397</v>
+        <v>6385.968958393461</v>
       </c>
       <c r="R8">
-        <v>574.3569933695397</v>
+        <v>57473.72062554115</v>
       </c>
       <c r="S8">
-        <v>0.07674490984113091</v>
+        <v>0.5254763382116009</v>
       </c>
       <c r="T8">
-        <v>0.07674490984113091</v>
+        <v>0.5873664054676485</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>139.42070551673</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H9">
-        <v>139.42070551673</v>
+        <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.0887261619890026</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J9">
-        <v>0.0887261619890026</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.643142582469859</v>
+        <v>0.015348</v>
       </c>
       <c r="N9">
-        <v>0.643142582469859</v>
+        <v>0.046044</v>
       </c>
       <c r="O9">
-        <v>0.135036294586446</v>
+        <v>0.00232851295313716</v>
       </c>
       <c r="P9">
-        <v>0.135036294586446</v>
+        <v>0.00259312955831475</v>
       </c>
       <c r="Q9">
-        <v>89.66739259579946</v>
+        <v>22.381696568012</v>
       </c>
       <c r="R9">
-        <v>89.66739259579946</v>
+        <v>201.435269112108</v>
       </c>
       <c r="S9">
-        <v>0.01198125214787168</v>
+        <v>0.001841702023944831</v>
       </c>
       <c r="T9">
-        <v>0.01198125214787168</v>
+        <v>0.002058615810235329</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>20.4702174927483</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H10">
-        <v>20.4702174927483</v>
+        <v>4374.842957</v>
       </c>
       <c r="I10">
-        <v>0.01302707389465733</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J10">
-        <v>0.01302707389465733</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>4.11959609041441</v>
+        <v>0.02281433333333334</v>
       </c>
       <c r="N10">
-        <v>4.11959609041441</v>
+        <v>0.068443</v>
       </c>
       <c r="O10">
-        <v>0.8649637054135539</v>
+        <v>0.003461263401345813</v>
       </c>
       <c r="P10">
-        <v>0.8649637054135539</v>
+        <v>0.003854607904607254</v>
       </c>
       <c r="Q10">
-        <v>84.32902795305856</v>
+        <v>33.26970850066122</v>
       </c>
       <c r="R10">
-        <v>84.32902795305856</v>
+        <v>299.427376505951</v>
       </c>
       <c r="S10">
-        <v>0.01126794610661898</v>
+        <v>0.002737633820364348</v>
       </c>
       <c r="T10">
-        <v>0.01126794610661898</v>
+        <v>0.003060069540003836</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,52 +1092,982 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>20.4702174927483</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H11">
-        <v>20.4702174927483</v>
+        <v>4374.842957</v>
       </c>
       <c r="I11">
-        <v>0.01302707389465733</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J11">
-        <v>0.01302707389465733</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.643142582469859</v>
+        <v>2.0178425</v>
       </c>
       <c r="N11">
-        <v>0.643142582469859</v>
+        <v>4.035685</v>
       </c>
       <c r="O11">
-        <v>0.135036294586446</v>
+        <v>0.3061358091373905</v>
       </c>
       <c r="P11">
-        <v>0.135036294586446</v>
+        <v>0.2272837733808414</v>
       </c>
       <c r="Q11">
-        <v>13.16526854200582</v>
+        <v>2942.581349820091</v>
       </c>
       <c r="R11">
-        <v>13.16526854200582</v>
+        <v>17655.48809892054</v>
       </c>
       <c r="S11">
-        <v>0.001759127788038347</v>
+        <v>0.2421334777333787</v>
       </c>
       <c r="T11">
-        <v>0.001759127788038347</v>
+        <v>0.1804344745489002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>60.09979000000001</v>
+      </c>
+      <c r="H12">
+        <v>180.29937</v>
+      </c>
+      <c r="I12">
+        <v>0.03259661091107292</v>
+      </c>
+      <c r="J12">
+        <v>0.03271770480169137</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.156219</v>
+      </c>
+      <c r="N12">
+        <v>0.468657</v>
+      </c>
+      <c r="O12">
+        <v>0.02370067533399361</v>
+      </c>
+      <c r="P12">
+        <v>0.02639406479478576</v>
+      </c>
+      <c r="Q12">
+        <v>9.388729094010001</v>
+      </c>
+      <c r="R12">
+        <v>84.49856184609</v>
+      </c>
+      <c r="S12">
+        <v>0.0007725616921918529</v>
+      </c>
+      <c r="T12">
+        <v>0.0008635532204725152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>60.09979000000001</v>
+      </c>
+      <c r="H13">
+        <v>180.29937</v>
+      </c>
+      <c r="I13">
+        <v>0.03259661091107292</v>
+      </c>
+      <c r="J13">
+        <v>0.03271770480169137</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.379107333333333</v>
+      </c>
+      <c r="N13">
+        <v>13.137322</v>
+      </c>
+      <c r="O13">
+        <v>0.6643737391741329</v>
+      </c>
+      <c r="P13">
+        <v>0.7398744243614509</v>
+      </c>
+      <c r="Q13">
+        <v>263.1834311207933</v>
+      </c>
+      <c r="R13">
+        <v>2368.65088008714</v>
+      </c>
+      <c r="S13">
+        <v>0.02165633227539385</v>
+      </c>
+      <c r="T13">
+        <v>0.02420699300657928</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>60.09979000000001</v>
+      </c>
+      <c r="H14">
+        <v>180.29937</v>
+      </c>
+      <c r="I14">
+        <v>0.03259661091107292</v>
+      </c>
+      <c r="J14">
+        <v>0.03271770480169137</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.015348</v>
+      </c>
+      <c r="N14">
+        <v>0.046044</v>
+      </c>
+      <c r="O14">
+        <v>0.00232851295313716</v>
+      </c>
+      <c r="P14">
+        <v>0.00259312955831475</v>
+      </c>
+      <c r="Q14">
+        <v>0.9224115769200001</v>
+      </c>
+      <c r="R14">
+        <v>8.301704192280001</v>
+      </c>
+      <c r="S14">
+        <v>7.590163073480537E-05</v>
+      </c>
+      <c r="T14">
+        <v>8.48412474014823E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>60.09979000000001</v>
+      </c>
+      <c r="H15">
+        <v>180.29937</v>
+      </c>
+      <c r="I15">
+        <v>0.03259661091107292</v>
+      </c>
+      <c r="J15">
+        <v>0.03271770480169137</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.02281433333333334</v>
+      </c>
+      <c r="N15">
+        <v>0.068443</v>
+      </c>
+      <c r="O15">
+        <v>0.003461263401345813</v>
+      </c>
+      <c r="P15">
+        <v>0.003854607904607254</v>
+      </c>
+      <c r="Q15">
+        <v>1.371136642323334</v>
+      </c>
+      <c r="R15">
+        <v>12.34022978091</v>
+      </c>
+      <c r="S15">
+        <v>0.0001128254563544063</v>
+      </c>
+      <c r="T15">
+        <v>0.0001261139235492063</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>60.09979000000001</v>
+      </c>
+      <c r="H16">
+        <v>180.29937</v>
+      </c>
+      <c r="I16">
+        <v>0.03259661091107292</v>
+      </c>
+      <c r="J16">
+        <v>0.03271770480169137</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.0178425</v>
+      </c>
+      <c r="N16">
+        <v>4.035685</v>
+      </c>
+      <c r="O16">
+        <v>0.3061358091373905</v>
+      </c>
+      <c r="P16">
+        <v>0.2272837733808414</v>
+      </c>
+      <c r="Q16">
+        <v>121.271910503075</v>
+      </c>
+      <c r="R16">
+        <v>727.6314630184501</v>
+      </c>
+      <c r="S16">
+        <v>0.009978989856397998</v>
+      </c>
+      <c r="T16">
+        <v>0.007436203403688887</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>280.168911</v>
+      </c>
+      <c r="H17">
+        <v>840.5067330000001</v>
+      </c>
+      <c r="I17">
+        <v>0.1519565539454633</v>
+      </c>
+      <c r="J17">
+        <v>0.152521060800867</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.156219</v>
+      </c>
+      <c r="N17">
+        <v>0.468657</v>
+      </c>
+      <c r="O17">
+        <v>0.02370067533399361</v>
+      </c>
+      <c r="P17">
+        <v>0.02639406479478576</v>
+      </c>
+      <c r="Q17">
+        <v>43.767707107509</v>
+      </c>
+      <c r="R17">
+        <v>393.909363967581</v>
+      </c>
+      <c r="S17">
+        <v>0.003601472949933912</v>
+      </c>
+      <c r="T17">
+        <v>0.004025650761347544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>280.168911</v>
+      </c>
+      <c r="H18">
+        <v>840.5067330000001</v>
+      </c>
+      <c r="I18">
+        <v>0.1519565539454633</v>
+      </c>
+      <c r="J18">
+        <v>0.152521060800867</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.379107333333333</v>
+      </c>
+      <c r="N18">
+        <v>13.137322</v>
+      </c>
+      <c r="O18">
+        <v>0.6643737391741329</v>
+      </c>
+      <c r="P18">
+        <v>0.7398744243614509</v>
+      </c>
+      <c r="Q18">
+        <v>1226.889732732114</v>
+      </c>
+      <c r="R18">
+        <v>11042.00759458903</v>
+      </c>
+      <c r="S18">
+        <v>0.1009559439367633</v>
+      </c>
+      <c r="T18">
+        <v>0.1128464320630393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>280.168911</v>
+      </c>
+      <c r="H19">
+        <v>840.5067330000001</v>
+      </c>
+      <c r="I19">
+        <v>0.1519565539454633</v>
+      </c>
+      <c r="J19">
+        <v>0.152521060800867</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.015348</v>
+      </c>
+      <c r="N19">
+        <v>0.046044</v>
+      </c>
+      <c r="O19">
+        <v>0.00232851295313716</v>
+      </c>
+      <c r="P19">
+        <v>0.00259312955831475</v>
+      </c>
+      <c r="Q19">
+        <v>4.300032446028001</v>
+      </c>
+      <c r="R19">
+        <v>38.70029201425201</v>
+      </c>
+      <c r="S19">
+        <v>0.000353832804176097</v>
+      </c>
+      <c r="T19">
+        <v>0.0003955068710282494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>280.168911</v>
+      </c>
+      <c r="H20">
+        <v>840.5067330000001</v>
+      </c>
+      <c r="I20">
+        <v>0.1519565539454633</v>
+      </c>
+      <c r="J20">
+        <v>0.152521060800867</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.02281433333333334</v>
+      </c>
+      <c r="N20">
+        <v>0.068443</v>
+      </c>
+      <c r="O20">
+        <v>0.003461263401345813</v>
+      </c>
+      <c r="P20">
+        <v>0.003854607904607254</v>
+      </c>
+      <c r="Q20">
+        <v>6.391866925191001</v>
+      </c>
+      <c r="R20">
+        <v>57.52680232671901</v>
+      </c>
+      <c r="S20">
+        <v>0.000525961658766063</v>
+      </c>
+      <c r="T20">
+        <v>0.0005879088865821057</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>280.168911</v>
+      </c>
+      <c r="H21">
+        <v>840.5067330000001</v>
+      </c>
+      <c r="I21">
+        <v>0.1519565539454633</v>
+      </c>
+      <c r="J21">
+        <v>0.152521060800867</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.0178425</v>
+      </c>
+      <c r="N21">
+        <v>4.035685</v>
+      </c>
+      <c r="O21">
+        <v>0.3061358091373905</v>
+      </c>
+      <c r="P21">
+        <v>0.2272837733808414</v>
+      </c>
+      <c r="Q21">
+        <v>565.3367357945176</v>
+      </c>
+      <c r="R21">
+        <v>3392.020414767105</v>
+      </c>
+      <c r="S21">
+        <v>0.04651934259582394</v>
+      </c>
+      <c r="T21">
+        <v>0.03466556221886979</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>20.472042</v>
+      </c>
+      <c r="H22">
+        <v>40.944084</v>
+      </c>
+      <c r="I22">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J22">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.156219</v>
+      </c>
+      <c r="N22">
+        <v>0.468657</v>
+      </c>
+      <c r="O22">
+        <v>0.02370067533399361</v>
+      </c>
+      <c r="P22">
+        <v>0.02639406479478576</v>
+      </c>
+      <c r="Q22">
+        <v>3.198121929198</v>
+      </c>
+      <c r="R22">
+        <v>19.188731575188</v>
+      </c>
+      <c r="S22">
+        <v>0.0002631609097160354</v>
+      </c>
+      <c r="T22">
+        <v>0.0001961038222013598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>20.472042</v>
+      </c>
+      <c r="H23">
+        <v>40.944084</v>
+      </c>
+      <c r="I23">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J23">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.379107333333333</v>
+      </c>
+      <c r="N23">
+        <v>13.137322</v>
+      </c>
+      <c r="O23">
+        <v>0.6643737391741329</v>
+      </c>
+      <c r="P23">
+        <v>0.7398744243614509</v>
+      </c>
+      <c r="Q23">
+        <v>89.649269250508</v>
+      </c>
+      <c r="R23">
+        <v>537.895615503048</v>
+      </c>
+      <c r="S23">
+        <v>0.007376886739667785</v>
+      </c>
+      <c r="T23">
+        <v>0.005497152624819457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>20.472042</v>
+      </c>
+      <c r="H24">
+        <v>40.944084</v>
+      </c>
+      <c r="I24">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J24">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.015348</v>
+      </c>
+      <c r="N24">
+        <v>0.046044</v>
+      </c>
+      <c r="O24">
+        <v>0.00232851295313716</v>
+      </c>
+      <c r="P24">
+        <v>0.00259312955831475</v>
+      </c>
+      <c r="Q24">
+        <v>0.314204900616</v>
+      </c>
+      <c r="R24">
+        <v>1.885229403696</v>
+      </c>
+      <c r="S24">
+        <v>2.585468888113297E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.926655184802406E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>20.472042</v>
+      </c>
+      <c r="H25">
+        <v>40.944084</v>
+      </c>
+      <c r="I25">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J25">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.02281433333333334</v>
+      </c>
+      <c r="N25">
+        <v>0.068443</v>
+      </c>
+      <c r="O25">
+        <v>0.003461263401345813</v>
+      </c>
+      <c r="P25">
+        <v>0.003854607904607254</v>
+      </c>
+      <c r="Q25">
+        <v>0.4670559902020001</v>
+      </c>
+      <c r="R25">
+        <v>2.802335941212001</v>
+      </c>
+      <c r="S25">
+        <v>3.843220552279089E-05</v>
+      </c>
+      <c r="T25">
+        <v>2.863914099848646E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>20.472042</v>
+      </c>
+      <c r="H26">
+        <v>40.944084</v>
+      </c>
+      <c r="I26">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J26">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.0178425</v>
+      </c>
+      <c r="N26">
+        <v>4.035685</v>
+      </c>
+      <c r="O26">
+        <v>0.3061358091373905</v>
+      </c>
+      <c r="P26">
+        <v>0.2272837733808414</v>
+      </c>
+      <c r="Q26">
+        <v>41.309356409385</v>
+      </c>
+      <c r="R26">
+        <v>165.23742563754</v>
+      </c>
+      <c r="S26">
+        <v>0.003399184913254336</v>
+      </c>
+      <c r="T26">
+        <v>0.001688683309330053</v>
       </c>
     </row>
   </sheetData>
